--- a/BackTest/2020-01-12 BackTest ETH.xlsx
+++ b/BackTest/2020-01-12 BackTest ETH.xlsx
@@ -836,17 +836,13 @@
         <v>161450</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>161000</v>
-      </c>
-      <c r="K13" t="n">
-        <v>161000</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
@@ -875,22 +871,14 @@
         <v>161425</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>160800</v>
-      </c>
-      <c r="K14" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -924,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -959,22 +941,14 @@
         <v>161388.3333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>160900</v>
-      </c>
-      <c r="K16" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1002,22 +976,14 @@
         <v>161373.3333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>160800</v>
-      </c>
-      <c r="K17" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1045,22 +1011,14 @@
         <v>161365</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>160900</v>
-      </c>
-      <c r="K18" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1088,22 +1046,14 @@
         <v>161341.6666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>160800</v>
-      </c>
-      <c r="K19" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1131,22 +1081,14 @@
         <v>161321.6666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>160600</v>
-      </c>
-      <c r="K20" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1174,22 +1116,14 @@
         <v>161291.6666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>160400</v>
-      </c>
-      <c r="K21" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1217,22 +1151,14 @@
         <v>161266.6666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>160500</v>
-      </c>
-      <c r="K22" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1260,22 +1186,14 @@
         <v>161236.6666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>160500</v>
-      </c>
-      <c r="K23" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1303,22 +1221,14 @@
         <v>161210</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>160500</v>
-      </c>
-      <c r="K24" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1352,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1387,22 +1291,14 @@
         <v>161168.3333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>160500</v>
-      </c>
-      <c r="K26" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1430,22 +1326,14 @@
         <v>161153.3333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>160500</v>
-      </c>
-      <c r="K27" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1473,22 +1361,14 @@
         <v>161138.3333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>160500</v>
-      </c>
-      <c r="K28" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1522,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1557,22 +1431,14 @@
         <v>161126.6666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>160900</v>
-      </c>
-      <c r="K30" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1600,22 +1466,14 @@
         <v>161121.6666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>160900</v>
-      </c>
-      <c r="K31" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1643,22 +1501,14 @@
         <v>161113.3333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>160900</v>
-      </c>
-      <c r="K32" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1686,22 +1536,14 @@
         <v>161111.6666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>161000</v>
-      </c>
-      <c r="K33" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1729,22 +1571,14 @@
         <v>161105</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>161100</v>
-      </c>
-      <c r="K34" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1772,22 +1606,14 @@
         <v>161101.6666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>161100</v>
-      </c>
-      <c r="K35" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1815,22 +1641,14 @@
         <v>161095</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>161100</v>
-      </c>
-      <c r="K36" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1858,22 +1676,14 @@
         <v>161085</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>161300</v>
-      </c>
-      <c r="K37" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1901,22 +1711,14 @@
         <v>161075</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>161100</v>
-      </c>
-      <c r="K38" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1944,22 +1746,14 @@
         <v>161055</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>161000</v>
-      </c>
-      <c r="K39" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1987,22 +1781,14 @@
         <v>161036.6666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>160800</v>
-      </c>
-      <c r="K40" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2030,22 +1816,14 @@
         <v>161021.6666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>160700</v>
-      </c>
-      <c r="K41" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2073,22 +1851,14 @@
         <v>161006.6666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>160700</v>
-      </c>
-      <c r="K42" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2116,22 +1886,14 @@
         <v>160995</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>160700</v>
-      </c>
-      <c r="K43" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2159,22 +1921,14 @@
         <v>160981.6666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>160700</v>
-      </c>
-      <c r="K44" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +1956,14 @@
         <v>160971.6666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>160700</v>
-      </c>
-      <c r="K45" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2245,22 +1991,14 @@
         <v>160955</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>160700</v>
-      </c>
-      <c r="K46" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2026,14 @@
         <v>160940</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>160700</v>
-      </c>
-      <c r="K47" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2331,22 +2061,14 @@
         <v>160925</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>160900</v>
-      </c>
-      <c r="K48" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2374,22 +2096,14 @@
         <v>160908.3333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>160800</v>
-      </c>
-      <c r="K49" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2417,22 +2131,14 @@
         <v>160890</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>160700</v>
-      </c>
-      <c r="K50" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2460,22 +2166,14 @@
         <v>160876.6666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>160800</v>
-      </c>
-      <c r="K51" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2503,22 +2201,14 @@
         <v>160873.3333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>161000</v>
-      </c>
-      <c r="K52" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2546,22 +2236,14 @@
         <v>160878.3333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>161600</v>
-      </c>
-      <c r="K53" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2589,22 +2271,14 @@
         <v>160885</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>161900</v>
-      </c>
-      <c r="K54" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2632,22 +2306,14 @@
         <v>160898.3333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>161800</v>
-      </c>
-      <c r="K55" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2681,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2722,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2763,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2804,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2845,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2886,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2927,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2968,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3009,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3050,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3091,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3132,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3173,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3214,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3255,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3293,17 +2869,11 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3337,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3378,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3419,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3460,16 +3012,10 @@
         <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>161000</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>1.017360248447205</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3498,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3533,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3568,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3603,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3638,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3673,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3708,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -9795,13 +9341,17 @@
         <v>161873.3333333333</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>160800</v>
+      </c>
+      <c r="K256" t="n">
+        <v>160800</v>
+      </c>
       <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
@@ -9830,14 +9380,22 @@
         <v>161860</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>160900</v>
+      </c>
+      <c r="K257" t="n">
+        <v>160800</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9865,14 +9423,22 @@
         <v>161841.6666666667</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>161200</v>
+      </c>
+      <c r="K258" t="n">
+        <v>160800</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9900,13 +9466,17 @@
         <v>161825</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>160900</v>
+      </c>
+      <c r="K259" t="n">
+        <v>160900</v>
+      </c>
       <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
@@ -9935,14 +9505,22 @@
         <v>161806.6666666667</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>161100</v>
+      </c>
+      <c r="K260" t="n">
+        <v>160900</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9970,14 +9548,22 @@
         <v>161793.3333333333</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>161100</v>
+      </c>
+      <c r="K261" t="n">
+        <v>160900</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -12983,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest ETH.xlsx
+++ b/BackTest/2020-01-12 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3256,11 +3256,17 @@
         <v>126.642487500348</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>160500</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3299,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3332,17 @@
         <v>324.8490875003479</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>160700</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3375,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3412,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3449,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3486,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3523,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3560,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3597,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3634,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3671,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3708,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3745,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +3782,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +3819,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +3856,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +3893,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +3930,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +3967,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4004,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4041,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4078,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4115,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4152,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4189,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4226,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4263,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4300,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4337,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4374,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4411,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4448,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4485,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4522,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4559,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4596,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4633,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4670,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4707,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4744,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4781,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +4818,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4855,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4892,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4929,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +4966,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5003,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5040,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5077,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5114,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5151,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5188,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5225,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5262,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5295,15 @@
         <v>1379.04895730983</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5332,15 @@
         <v>1370.80915730983</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5373,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5406,15 @@
         <v>1454.24855730983</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5443,15 @@
         <v>1453.47065730983</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5480,15 @@
         <v>1485.50445730983</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5521,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5554,15 @@
         <v>1499.33535730983</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5591,15 @@
         <v>1499.33535730983</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5628,15 @@
         <v>1497.70155730983</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5669,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5706,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5739,15 @@
         <v>1273.98605730983</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5780,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5817,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5854,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5891,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +5928,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +5965,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6002,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6035,15 @@
         <v>1006.97205730983</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6072,15 @@
         <v>1006.93705730983</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6109,15 @@
         <v>1010.93695730983</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6150,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6187,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6224,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6261,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6298,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6335,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6372,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6409,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6446,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6483,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6520,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6557,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6594,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6631,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6668,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6705,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6742,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6779,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6816,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6853,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +6890,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6927,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6964,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +7001,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +7038,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +7075,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +7112,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +7149,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7186,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7223,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7260,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7297,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7334,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7371,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7408,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7445,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7482,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7519,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7556,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7593,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7630,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7667,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7704,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7741,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7778,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7815,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7852,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7889,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7926,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7963,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +8000,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +8037,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +8074,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +8111,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +8148,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8185,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8222,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8259,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8296,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8333,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8370,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8407,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8444,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8481,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8518,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8555,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8592,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8629,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8666,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8703,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8740,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8777,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8814,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8851,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8888,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8925,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8962,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8999,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +9036,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +9073,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +9110,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +9147,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +9184,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +9221,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +9258,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +9295,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +9332,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +9369,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +9406,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +9443,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9480,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9517,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9554,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9591,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9628,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9665,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9702,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9739,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9776,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9813,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9850,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9887,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9924,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9961,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9998,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +10035,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +10072,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +10109,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +10146,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +10183,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +10220,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +10257,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +10294,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +10331,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +10368,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +10405,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +10442,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +10479,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +10516,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +10553,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +10590,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +10627,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +10664,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10701,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10738,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +10775,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10812,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10849,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10886,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +10923,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10960,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10997,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +11034,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +11071,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +11108,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +11145,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +11182,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +11219,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +11256,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +11293,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +11330,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +11367,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +11404,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +11441,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +11478,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +11515,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +11552,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +11589,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +11626,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +11663,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11700,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +11737,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +11774,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10879,15 +11807,15 @@
         <v>1300.603100430223</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>160900</v>
-      </c>
-      <c r="J318" t="n">
-        <v>160900</v>
-      </c>
-      <c r="K318" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10919,12 +11847,10 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>160900</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L319" t="n">
@@ -10958,12 +11884,10 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>160900</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L320" t="n">
@@ -10998,7 +11922,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11031,7 +11959,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11064,7 +11996,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11097,7 +12033,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11130,7 +12070,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11163,7 +12107,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11196,7 +12144,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11229,7 +12181,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11262,7 +12218,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11295,7 +12255,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11328,7 +12292,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11361,7 +12329,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11394,7 +12366,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11427,7 +12403,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11460,7 +12440,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11493,7 +12477,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11526,7 +12514,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11559,7 +12551,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11592,7 +12588,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11625,7 +12625,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11654,15 +12658,13 @@
         <v>804.1174883239847</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>161200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L341" t="n">
@@ -11693,11 +12695,9 @@
         <v>810.9204169840343</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="n">
-        <v>160900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -12472,11 +13472,9 @@
         <v>579.4273969200802</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>161300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -12511,11 +13509,9 @@
         <v>579.4273969200802</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>161100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -12550,11 +13546,9 @@
         <v>579.4273969200802</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>161100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -12589,11 +13583,9 @@
         <v>585.8282969200802</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>161100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -12628,11 +13620,9 @@
         <v>585.9282969200802</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="n">
-        <v>161300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -12667,11 +13657,9 @@
         <v>559.2297969200803</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -12706,11 +13694,9 @@
         <v>559.2297969200803</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -12745,11 +13731,9 @@
         <v>559.2297969200803</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -12784,11 +13768,9 @@
         <v>559.3997969200802</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -12823,11 +13805,9 @@
         <v>558.0497969200802</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -12862,11 +13842,9 @@
         <v>678.3430969200803</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -12901,11 +13879,9 @@
         <v>678.3430969200803</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -16973,16 +17949,18 @@
         <v>2654.832162275309</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L484" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L484" t="n">
+        <v>1</v>
+      </c>
       <c r="M484" t="inlineStr"/>
     </row>
     <row r="485">
@@ -17008,11 +17986,15 @@
         <v>2654.832162275309</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17041,11 +18023,15 @@
         <v>2746.227962275309</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17074,11 +18060,15 @@
         <v>2825.116262275309</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17107,11 +18097,15 @@
         <v>2825.116262275309</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17140,11 +18134,15 @@
         <v>2635.395562275309</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17177,7 +18175,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17206,11 +18208,15 @@
         <v>2666.733262275309</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17243,7 +18249,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17276,7 +18286,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17305,14 +18319,16 @@
         <v>2755.156662275309</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="n">
-        <v>1</v>
-      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L494" t="inlineStr"/>
       <c r="M494" t="inlineStr"/>
     </row>
     <row r="495">
@@ -17338,7 +18354,7 @@
         <v>2533.933962275309</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17371,7 +18387,7 @@
         <v>2451.320862275309</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17404,7 +18420,7 @@
         <v>2395.409862275309</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17437,7 +18453,7 @@
         <v>2370.923362275309</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17470,7 +18486,7 @@
         <v>2404.913262275309</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17503,7 +18519,7 @@
         <v>2372.445662275309</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17536,7 +18552,7 @@
         <v>2394.091262275309</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17569,7 +18585,7 @@
         <v>2260.654962275309</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17602,7 +18618,7 @@
         <v>2280.316662275309</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17635,7 +18651,7 @@
         <v>2280.316662275309</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17668,7 +18684,7 @@
         <v>2280.316662275309</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17701,7 +18717,7 @@
         <v>2307.628462275309</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17734,7 +18750,7 @@
         <v>2242.956962275309</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17767,7 +18783,7 @@
         <v>2242.956962275309</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17800,7 +18816,7 @@
         <v>2261.132562275309</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17833,7 +18849,7 @@
         <v>2261.132562275309</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17866,7 +18882,7 @@
         <v>2134.301762275309</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17899,7 +18915,7 @@
         <v>1915.537362275309</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17932,7 +18948,7 @@
         <v>1851.610662275309</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17965,7 +18981,7 @@
         <v>1829.924662275309</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17998,7 +19014,7 @@
         <v>1877.033062275309</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18031,7 +19047,7 @@
         <v>1877.033062275309</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18064,7 +19080,7 @@
         <v>1878.99246276671</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18097,7 +19113,7 @@
         <v>1855.82996276671</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18130,7 +19146,7 @@
         <v>1900.81786276671</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18163,7 +19179,7 @@
         <v>1888.51666276671</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18196,7 +19212,7 @@
         <v>1888.51666276671</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18229,7 +19245,7 @@
         <v>1888.51666276671</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18262,7 +19278,7 @@
         <v>1917.337075228343</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18295,7 +19311,7 @@
         <v>1900.542575228343</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18328,7 +19344,7 @@
         <v>1830.328075228343</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18361,7 +19377,7 @@
         <v>1815.262475228343</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18394,7 +19410,7 @@
         <v>1815.262475228343</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18427,7 +19443,7 @@
         <v>1815.262475228343</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18460,7 +19476,7 @@
         <v>1748.662975228343</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18493,7 +19509,7 @@
         <v>1696.748675228343</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18526,7 +19542,7 @@
         <v>1646.756975228343</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18559,7 +19575,7 @@
         <v>1638.821075228343</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18592,7 +19608,7 @@
         <v>1613.881975228343</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18625,7 +19641,7 @@
         <v>1617.667675228343</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18658,7 +19674,7 @@
         <v>1586.992375228343</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18691,7 +19707,7 @@
         <v>1593.757975228343</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18724,7 +19740,7 @@
         <v>1655.513874857514</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -22849,17 +23865,11 @@
         <v>1047.209255526668</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
-      </c>
-      <c r="I662" t="n">
-        <v>161800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22892,11 +23902,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22929,11 +23935,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22962,17 +23964,11 @@
         <v>1047.209255526668</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
-      </c>
-      <c r="I665" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23001,17 +23997,11 @@
         <v>1047.209255526668</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
-      </c>
-      <c r="I666" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23040,17 +24030,11 @@
         <v>1089.525255526668</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
-      </c>
-      <c r="I667" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23079,17 +24063,11 @@
         <v>1089.525255526668</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
-      </c>
-      <c r="I668" t="n">
-        <v>161800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23122,11 +24100,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23159,11 +24133,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23196,11 +24166,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23233,11 +24199,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23270,11 +24232,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23307,11 +24265,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23344,11 +24298,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23381,11 +24331,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23418,11 +24364,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23455,11 +24397,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23492,11 +24430,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23529,11 +24463,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23566,11 +24496,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23603,11 +24529,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23640,11 +24562,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23677,11 +24595,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23714,11 +24628,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23751,11 +24661,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23788,11 +24694,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23825,11 +24727,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23862,11 +24760,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23899,11 +24793,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23936,11 +24826,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23973,11 +24859,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24010,11 +24892,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24047,11 +24925,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24084,11 +24958,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24121,11 +24991,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24158,11 +25024,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24195,11 +25057,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24232,11 +25090,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24269,11 +25123,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24306,11 +25156,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24343,11 +25189,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24380,11 +25222,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24413,13 +25251,15 @@
         <v>-466.3349444733319</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>161400</v>
+      </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L704" t="n">
@@ -24450,7 +25290,7 @@
         <v>-498.5162444733319</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I705" t="n">
         <v>161400</v>
@@ -24489,9 +25329,11 @@
         <v>-488.1201444733319</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>161300</v>
+      </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
@@ -24526,9 +25368,11 @@
         <v>-461.6140444733319</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>161400</v>
+      </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
@@ -24563,11 +25407,9 @@
         <v>-475.1521444733319</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
-      </c>
-      <c r="I708" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
@@ -24639,11 +25481,9 @@
         <v>-475.1521444733319</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
-      </c>
-      <c r="I710" t="n">
-        <v>161400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
@@ -24715,9 +25555,11 @@
         <v>-492.3898773110022</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>161300</v>
+      </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
@@ -24752,9 +25594,11 @@
         <v>-492.3898773110022</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>161300</v>
+      </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -24789,9 +25633,11 @@
         <v>-437.2787773110022</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>161300</v>
+      </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -24826,9 +25672,11 @@
         <v>-528.4389773110022</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>161400</v>
+      </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24863,7 +25711,7 @@
         <v>-515.8838458364049</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I716" t="n">
         <v>161200</v>
@@ -24902,7 +25750,7 @@
         <v>-525.9032458364049</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I717" t="n">
         <v>161400</v>
@@ -24941,7 +25789,7 @@
         <v>-523.6917458364049</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I718" t="n">
         <v>161200</v>
@@ -24980,11 +25828,9 @@
         <v>-523.6917458364049</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
-      </c>
-      <c r="I719" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -25019,7 +25865,7 @@
         <v>-523.6917458364049</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I720" t="n">
         <v>161500</v>
@@ -25058,9 +25904,11 @@
         <v>-526.219145836405</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>161500</v>
+      </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -25095,9 +25943,11 @@
         <v>-517.234845836405</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>161400</v>
+      </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -25206,11 +26056,9 @@
         <v>-448.7288458364051</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
-      </c>
-      <c r="I725" t="n">
-        <v>161900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -25245,11 +26093,9 @@
         <v>-454.5725458364051</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
-      </c>
-      <c r="I726" t="n">
-        <v>161900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -25284,11 +26130,9 @@
         <v>-454.5725458364051</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
-      </c>
-      <c r="I727" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -25323,11 +26167,9 @@
         <v>-454.5725458364051</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
-      </c>
-      <c r="I728" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -25362,9 +26204,11 @@
         <v>-510.2935458364051</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>161700</v>
+      </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -25399,7 +26243,7 @@
         <v>-545.6405458364051</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I730" t="n">
         <v>161600</v>
@@ -25438,11 +26282,9 @@
         <v>-545.6405458364051</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
-      </c>
-      <c r="I731" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -25477,9 +26319,11 @@
         <v>-545.6405458364051</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>161500</v>
+      </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -25514,11 +26358,9 @@
         <v>-538.5353458364051</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
-      </c>
-      <c r="I733" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -25553,11 +26395,9 @@
         <v>-538.5353458364051</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
-      </c>
-      <c r="I734" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -25629,11 +26469,9 @@
         <v>-536.6114458364051</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
-      </c>
-      <c r="I736" t="n">
-        <v>161900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -25705,11 +26543,9 @@
         <v>-428.6539458364051</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
-      </c>
-      <c r="I738" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -26040,7 +26876,7 @@
         <v>-733.8411041496968</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I747" t="n">
         <v>161700</v>
@@ -26079,7 +26915,7 @@
         <v>-848.6608041496968</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I748" t="n">
         <v>161700</v>
@@ -26118,7 +26954,7 @@
         <v>-848.6608041496968</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I749" t="n">
         <v>161100</v>
@@ -26157,7 +26993,7 @@
         <v>-726.1024041496968</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I750" t="n">
         <v>161100</v>
@@ -26196,7 +27032,7 @@
         <v>-728.2812041496968</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I751" t="n">
         <v>161200</v>
@@ -26235,7 +27071,7 @@
         <v>-724.8812041496968</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I752" t="n">
         <v>161100</v>
@@ -26274,7 +27110,7 @@
         <v>-729.3752041496969</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753" t="n">
         <v>161200</v>
@@ -26313,7 +27149,7 @@
         <v>-710.9138041496968</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I754" t="n">
         <v>161000</v>
@@ -26352,7 +27188,7 @@
         <v>-710.9138041496968</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I755" t="n">
         <v>161200</v>
@@ -26391,9 +27227,11 @@
         <v>-710.9138041496968</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>161200</v>
+      </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -26428,7 +27266,7 @@
         <v>-713.2819041496969</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I757" t="n">
         <v>161200</v>
@@ -26467,7 +27305,7 @@
         <v>-713.2819041496969</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I758" t="n">
         <v>161100</v>
@@ -26506,7 +27344,7 @@
         <v>-713.2819041496969</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I759" t="n">
         <v>161100</v>
@@ -26545,7 +27383,7 @@
         <v>-713.2819041496969</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
         <v>161100</v>
@@ -26584,7 +27422,7 @@
         <v>-760.9143041496968</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I761" t="n">
         <v>161100</v>
@@ -26623,7 +27461,7 @@
         <v>-760.9143041496968</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I762" t="n">
         <v>161000</v>
@@ -26662,7 +27500,7 @@
         <v>-760.9143041496968</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I763" t="n">
         <v>161000</v>
@@ -26701,7 +27539,7 @@
         <v>-688.8711041496969</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I764" t="n">
         <v>161000</v>
@@ -26740,7 +27578,7 @@
         <v>-685.0430136351277</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I765" t="n">
         <v>161100</v>
@@ -26779,7 +27617,7 @@
         <v>-649.3756136351277</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766" t="n">
         <v>161300</v>
@@ -26818,9 +27656,11 @@
         <v>-650.1173136351277</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>161400</v>
+      </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -26855,9 +27695,11 @@
         <v>-644.4529136351277</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>161300</v>
+      </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -26892,9 +27734,11 @@
         <v>-638.4281136351277</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>161400</v>
+      </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -26929,9 +27773,11 @@
         <v>-633.1424136351277</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>161500</v>
+      </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
@@ -26966,9 +27812,11 @@
         <v>-635.4963136351276</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>161600</v>
+      </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
@@ -27003,9 +27851,11 @@
         <v>-636.4463136351277</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>161500</v>
+      </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -27040,7 +27890,7 @@
         <v>-636.4463136351277</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I773" t="n">
         <v>161400</v>
@@ -27079,7 +27929,7 @@
         <v>-634.4091136351277</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I774" t="n">
         <v>161400</v>
@@ -27118,7 +27968,7 @@
         <v>-632.1778136351277</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I775" t="n">
         <v>161500</v>
@@ -27157,7 +28007,7 @@
         <v>-632.2332136351276</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I776" t="n">
         <v>161700</v>
@@ -27196,7 +28046,7 @@
         <v>-641.5185136351276</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I777" t="n">
         <v>161600</v>
@@ -27235,7 +28085,7 @@
         <v>-641.5185136351276</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I778" t="n">
         <v>161500</v>
@@ -27274,7 +28124,7 @@
         <v>-641.5185136351276</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I779" t="n">
         <v>161500</v>
@@ -27313,7 +28163,7 @@
         <v>-641.5185136351276</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I780" t="n">
         <v>161500</v>
@@ -27352,7 +28202,7 @@
         <v>-644.8566136351277</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I781" t="n">
         <v>161500</v>
@@ -27391,7 +28241,7 @@
         <v>-644.8566136351277</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I782" t="n">
         <v>161400</v>
@@ -27430,7 +28280,7 @@
         <v>-675.6685136351277</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I783" t="n">
         <v>161400</v>
@@ -27469,7 +28319,7 @@
         <v>-675.6685136351277</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I784" t="n">
         <v>161300</v>
@@ -27508,9 +28358,11 @@
         <v>-675.5397136351278</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>161300</v>
+      </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -27545,7 +28397,7 @@
         <v>-675.9397136351278</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I786" t="n">
         <v>161600</v>
@@ -27584,9 +28436,11 @@
         <v>-660.0322136351277</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>161300</v>
+      </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -27621,9 +28475,11 @@
         <v>-659.4641136351278</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>161600</v>
+      </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -27917,9 +28773,11 @@
         <v>-532.1747136351278</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>161300</v>
+      </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
@@ -27954,7 +28812,7 @@
         <v>-532.1747136351278</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I797" t="n">
         <v>161300</v>
@@ -27993,7 +28851,7 @@
         <v>-528.6127136351278</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I798" t="n">
         <v>161300</v>
@@ -28032,7 +28890,7 @@
         <v>-528.6127136351278</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I799" t="n">
         <v>161400</v>
@@ -28071,7 +28929,7 @@
         <v>-514.0963136351278</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I800" t="n">
         <v>161400</v>
@@ -28110,7 +28968,7 @@
         <v>-666.7782136351278</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I801" t="n">
         <v>161900</v>
@@ -28149,7 +29007,7 @@
         <v>-562.3764136351278</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I802" t="n">
         <v>161700</v>
@@ -28188,7 +29046,7 @@
         <v>-659.0733136351279</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I803" t="n">
         <v>161800</v>
@@ -28227,7 +29085,7 @@
         <v>-651.5497136351279</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I804" t="n">
         <v>161600</v>
@@ -28266,7 +29124,7 @@
         <v>-651.5497136351279</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I805" t="n">
         <v>162000</v>
@@ -28305,11 +29163,9 @@
         <v>-579.7180136351279</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
-      </c>
-      <c r="I806" t="n">
-        <v>162000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -28344,11 +29200,9 @@
         <v>-587.0144136351279</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
-      </c>
-      <c r="I807" t="n">
-        <v>162100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -28383,11 +29237,9 @@
         <v>-584.3628136351278</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
-      </c>
-      <c r="I808" t="n">
-        <v>161900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -28422,11 +29274,9 @@
         <v>-577.8538136351278</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
-      </c>
-      <c r="I809" t="n">
-        <v>162100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -28461,11 +29311,9 @@
         <v>-577.8538136351278</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
-      </c>
-      <c r="I810" t="n">
-        <v>162200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -28500,11 +29348,9 @@
         <v>-577.8538136351278</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
-      </c>
-      <c r="I811" t="n">
-        <v>162200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -28539,11 +29385,9 @@
         <v>-578.1266136351278</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
-      </c>
-      <c r="I812" t="n">
-        <v>162200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -28578,11 +29422,9 @@
         <v>-565.9976136351278</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
-      </c>
-      <c r="I813" t="n">
-        <v>162000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -28617,7 +29459,7 @@
         <v>-562.0632136351278</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I814" t="n">
         <v>162200</v>
@@ -28656,11 +29498,9 @@
         <v>-562.0632136351278</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
-      </c>
-      <c r="I815" t="n">
-        <v>162400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -28695,11 +29535,9 @@
         <v>-569.9253136351278</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
-      </c>
-      <c r="I816" t="n">
-        <v>162400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -28734,11 +29572,9 @@
         <v>-569.9253136351278</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
-      </c>
-      <c r="I817" t="n">
-        <v>162300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -28773,11 +29609,9 @@
         <v>-567.3958136351279</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
-      </c>
-      <c r="I818" t="n">
-        <v>162300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -28812,11 +29646,9 @@
         <v>-566.4085136351279</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
-      </c>
-      <c r="I819" t="n">
-        <v>162400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -28851,11 +29683,9 @@
         <v>-568.7305136351279</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
-      </c>
-      <c r="I820" t="n">
-        <v>162500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -28890,11 +29720,9 @@
         <v>-568.7305136351279</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
-      </c>
-      <c r="I821" t="n">
-        <v>162300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -28929,11 +29757,9 @@
         <v>-568.7305136351279</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
-      </c>
-      <c r="I822" t="n">
-        <v>162300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -28968,11 +29794,9 @@
         <v>-491.3992136351279</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
-      </c>
-      <c r="I823" t="n">
-        <v>162300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -29007,11 +29831,9 @@
         <v>-491.3992136351279</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
-      </c>
-      <c r="I824" t="n">
-        <v>162400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -29046,11 +29868,9 @@
         <v>-537.1601136351279</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
-      </c>
-      <c r="I825" t="n">
-        <v>162400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -29085,11 +29905,9 @@
         <v>-544.9069628962117</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
-      </c>
-      <c r="I826" t="n">
-        <v>162300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -29124,9 +29942,11 @@
         <v>-556.6582628962117</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>162200</v>
+      </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -29161,9 +29981,11 @@
         <v>-556.6582628962117</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>162100</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -29198,7 +30020,7 @@
         <v>-739.9102628962116</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I829" t="n">
         <v>162100</v>
@@ -29237,7 +30059,7 @@
         <v>-731.6912628962116</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I830" t="n">
         <v>161700</v>
@@ -29276,7 +30098,7 @@
         <v>-738.3392628962116</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I831" t="n">
         <v>162000</v>
@@ -29315,7 +30137,7 @@
         <v>-738.3392628962116</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I832" t="n">
         <v>161900</v>
@@ -29354,7 +30176,7 @@
         <v>-731.7892628962117</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I833" t="n">
         <v>161900</v>
@@ -29393,9 +30215,11 @@
         <v>-732.3540628962116</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>162000</v>
+      </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -29430,9 +30254,11 @@
         <v>-717.2329628962117</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>161900</v>
+      </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -29467,9 +30293,11 @@
         <v>-717.2329628962117</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>162000</v>
+      </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -29504,9 +30332,11 @@
         <v>-727.0454628962117</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>162000</v>
+      </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -29541,9 +30371,11 @@
         <v>-719.1377520454103</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>161900</v>
+      </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -29578,9 +30410,11 @@
         <v>-734.6109520454103</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>162200</v>
+      </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -29615,9 +30449,11 @@
         <v>-715.6386520454103</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>161900</v>
+      </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -29652,9 +30488,11 @@
         <v>-715.6386520454103</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>162000</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -29689,9 +30527,11 @@
         <v>-713.8952520454103</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>162000</v>
+      </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -29726,9 +30566,11 @@
         <v>-714.8832520454104</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>162100</v>
+      </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -29763,9 +30605,11 @@
         <v>-703.2884520454104</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>161900</v>
+      </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -29800,9 +30644,11 @@
         <v>-703.2884520454104</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>162000</v>
+      </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -29837,7 +30683,7 @@
         <v>-787.6819520454104</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I846" t="n">
         <v>162000</v>
@@ -29876,7 +30722,7 @@
         <v>-822.4309520454104</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I847" t="n">
         <v>161900</v>
@@ -29915,7 +30761,7 @@
         <v>-822.4309520454104</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I848" t="n">
         <v>161800</v>
@@ -29954,7 +30800,7 @@
         <v>-839.6637520454104</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I849" t="n">
         <v>161800</v>
@@ -29993,7 +30839,7 @@
         <v>-949.2989520454105</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I850" t="n">
         <v>161500</v>
@@ -30032,7 +30878,7 @@
         <v>-936.5743520454105</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I851" t="n">
         <v>161400</v>
@@ -30071,7 +30917,7 @@
         <v>-939.1319520454105</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I852" t="n">
         <v>161700</v>
@@ -30110,7 +30956,7 @@
         <v>-932.2629291635304</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I853" t="n">
         <v>161400</v>
@@ -30149,7 +30995,7 @@
         <v>-982.2629291635304</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I854" t="n">
         <v>161700</v>
@@ -30188,7 +31034,7 @@
         <v>-980.9825291635304</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I855" t="n">
         <v>161400</v>
@@ -30227,7 +31073,7 @@
         <v>-992.6779291635304</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I856" t="n">
         <v>161600</v>
@@ -30266,7 +31112,7 @@
         <v>-983.5560291635304</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I857" t="n">
         <v>161500</v>
@@ -30305,7 +31151,7 @@
         <v>-946.0360291635304</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I858" t="n">
         <v>161600</v>
@@ -30344,7 +31190,7 @@
         <v>-946.0360291635304</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I859" t="n">
         <v>161800</v>
@@ -30383,7 +31229,7 @@
         <v>-892.2442291635305</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I860" t="n">
         <v>161800</v>
@@ -30422,7 +31268,7 @@
         <v>-896.2442291635305</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I861" t="n">
         <v>162000</v>
@@ -30461,9 +31307,11 @@
         <v>-896.2442291635305</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>161900</v>
+      </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -30498,9 +31346,11 @@
         <v>-894.8867291635305</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>161900</v>
+      </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -30535,9 +31385,11 @@
         <v>-900.3630291635305</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>162200</v>
+      </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -30572,9 +31424,11 @@
         <v>-823.3839291635305</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>162100</v>
+      </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -30609,9 +31463,11 @@
         <v>-823.3839291635305</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>162200</v>
+      </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -30646,9 +31502,11 @@
         <v>-845.9898291635305</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>162200</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -30683,9 +31541,11 @@
         <v>-845.1884291635306</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>161900</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -30757,9 +31617,11 @@
         <v>-802.2911291635306</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>162000</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -30979,7 +31841,7 @@
         <v>-743.4852771610661</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I876" t="n">
         <v>162000</v>
@@ -31018,9 +31880,11 @@
         <v>-744.791077161066</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>162200</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -31055,7 +31919,7 @@
         <v>-751.568677161066</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I878" t="n">
         <v>162000</v>
@@ -31094,7 +31958,7 @@
         <v>-751.568677161066</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I879" t="n">
         <v>161900</v>
@@ -31133,7 +31997,7 @@
         <v>-751.568677161066</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I880" t="n">
         <v>161900</v>
@@ -31172,7 +32036,7 @@
         <v>-751.568677161066</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I881" t="n">
         <v>161900</v>
@@ -31211,7 +32075,7 @@
         <v>-750.646177161066</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I882" t="n">
         <v>161900</v>
@@ -31250,7 +32114,7 @@
         <v>-755.646177161066</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I883" t="n">
         <v>162000</v>
@@ -31289,7 +32153,7 @@
         <v>-755.646177161066</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I884" t="n">
         <v>161900</v>
@@ -31328,7 +32192,7 @@
         <v>-387.425777161066</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I885" t="n">
         <v>161900</v>
@@ -31367,9 +32231,11 @@
         <v>-387.425777161066</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>162200</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -31885,11 +32751,9 @@
         <v>-124.585677161066</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
-      </c>
-      <c r="I900" t="n">
-        <v>162200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -31924,11 +32788,9 @@
         <v>-124.585677161066</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
-      </c>
-      <c r="I901" t="n">
-        <v>162200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -31963,11 +32825,9 @@
         <v>-108.343977161066</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
-      </c>
-      <c r="I902" t="n">
-        <v>162200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -32002,11 +32862,9 @@
         <v>-108.343977161066</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
-      </c>
-      <c r="I903" t="n">
-        <v>162300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -32041,11 +32899,9 @@
         <v>-114.363177161066</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
-      </c>
-      <c r="I904" t="n">
-        <v>162300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -32080,11 +32936,9 @@
         <v>-103.672677161066</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
-      </c>
-      <c r="I905" t="n">
-        <v>162200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -32119,11 +32973,9 @@
         <v>-103.672677161066</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
-      </c>
-      <c r="I906" t="n">
-        <v>162300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
@@ -32158,11 +33010,9 @@
         <v>-103.672677161066</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
-      </c>
-      <c r="I907" t="n">
-        <v>162300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
@@ -32197,7 +33047,7 @@
         <v>-102.609277161066</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I908" t="n">
         <v>162300</v>
@@ -32236,9 +33086,11 @@
         <v>-106.855477161066</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>162400</v>
+      </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -32273,7 +33125,7 @@
         <v>-109.532577161066</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I910" t="n">
         <v>162300</v>
@@ -32312,7 +33164,7 @@
         <v>-107.753177161066</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I911" t="n">
         <v>162200</v>
@@ -32351,11 +33203,9 @@
         <v>-109.729077161066</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
-      </c>
-      <c r="I912" t="n">
-        <v>162400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -33833,9 +34683,11 @@
         <v>-111.097604188093</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>162300</v>
+      </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
@@ -33870,9 +34722,11 @@
         <v>-95.83830418809302</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>162300</v>
+      </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
@@ -35757,9 +36611,11 @@
         <v>-499.5067323146267</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>161900</v>
+      </c>
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
@@ -35794,9 +36650,11 @@
         <v>-502.3593323146267</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>162000</v>
+      </c>
       <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
@@ -35868,9 +36726,11 @@
         <v>-629.2438323146267</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>161700</v>
+      </c>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
@@ -35942,9 +36802,11 @@
         <v>-471.4383323146267</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>161700</v>
+      </c>
       <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
@@ -35979,9 +36841,11 @@
         <v>-501.3890558004117</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>161800</v>
+      </c>
       <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
@@ -36016,9 +36880,11 @@
         <v>-550.9055558004117</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
@@ -36053,9 +36919,11 @@
         <v>-509.5317558004116</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>161500</v>
+      </c>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
@@ -36090,9 +36958,11 @@
         <v>-509.5317558004116</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
@@ -36127,9 +36997,11 @@
         <v>-509.5317558004116</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
@@ -36164,9 +37036,11 @@
         <v>-506.2068558004116</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
@@ -36201,9 +37075,11 @@
         <v>-506.2068558004116</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>161700</v>
+      </c>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
@@ -36275,9 +37151,11 @@
         <v>-520.0435558004116</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>161400</v>
+      </c>
       <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
@@ -36312,9 +37190,11 @@
         <v>-530.1545558004116</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>161400</v>
+      </c>
       <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
@@ -36349,9 +37229,11 @@
         <v>-530.1545558004116</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
@@ -36386,9 +37268,11 @@
         <v>-788.1756558004115</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
@@ -36423,9 +37307,11 @@
         <v>-798.003229497682</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>161200</v>
+      </c>
       <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
@@ -36460,9 +37346,11 @@
         <v>-798.003229497682</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>161100</v>
+      </c>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
@@ -36497,9 +37385,11 @@
         <v>-725.0990031949525</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>161100</v>
+      </c>
       <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
@@ -36534,9 +37424,11 @@
         <v>-725.0990031949525</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
@@ -36571,9 +37463,11 @@
         <v>-725.0990031949525</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
@@ -36608,9 +37502,11 @@
         <v>-716.8763031949525</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
@@ -36645,9 +37541,11 @@
         <v>-701.2824031949525</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>161500</v>
+      </c>
       <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
@@ -36682,9 +37580,11 @@
         <v>-710.5558031949525</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
@@ -36719,9 +37619,11 @@
         <v>-710.5558031949525</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>161400</v>
+      </c>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
@@ -36756,9 +37658,11 @@
         <v>-778.9989031949525</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>161400</v>
+      </c>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
@@ -36793,9 +37697,11 @@
         <v>-778.9989031949525</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
@@ -36830,9 +37736,11 @@
         <v>-778.9989031949525</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
@@ -36867,9 +37775,11 @@
         <v>-643.7457031949525</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
@@ -36904,9 +37814,11 @@
         <v>-643.8766031949525</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>161400</v>
+      </c>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
@@ -36941,9 +37853,11 @@
         <v>-631.6372031949525</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
@@ -36978,9 +37892,11 @@
         <v>-593.3187031949525</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>161400</v>
+      </c>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
@@ -37015,9 +37931,11 @@
         <v>-593.3187031949525</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>161500</v>
+      </c>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
@@ -37052,9 +37970,11 @@
         <v>-589.3031031949525</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>161500</v>
+      </c>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
@@ -37089,9 +38009,11 @@
         <v>-579.3031031949525</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
@@ -37237,9 +38159,11 @@
         <v>-602.2221031949525</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>161500</v>
+      </c>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
@@ -37274,9 +38198,11 @@
         <v>-602.2221031949525</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
@@ -37311,9 +38237,11 @@
         <v>-600.8106675912373</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
@@ -37348,9 +38276,11 @@
         <v>-600.8106675912373</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>161400</v>
+      </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
@@ -37385,9 +38315,11 @@
         <v>-600.8106675912373</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>161400</v>
+      </c>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
@@ -37422,9 +38354,11 @@
         <v>-611.4664675912373</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>161400</v>
+      </c>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
@@ -37459,9 +38393,11 @@
         <v>-611.4664675912373</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
@@ -37496,9 +38432,11 @@
         <v>-611.4664675912373</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -37533,9 +38471,11 @@
         <v>-795.2956675912374</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
@@ -37570,7 +38510,7 @@
         <v>-726.8449675912374</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1053" t="n">
         <v>161200</v>
@@ -37609,7 +38549,7 @@
         <v>-730.1525675912374</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1054" t="n">
         <v>161300</v>
@@ -37648,9 +38588,11 @@
         <v>-219.4493675912374</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>161200</v>
+      </c>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
@@ -37685,7 +38627,7 @@
         <v>-219.4493675912374</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1056" t="n">
         <v>161300</v>
@@ -37798,9 +38740,11 @@
         <v>-243.6458675912374</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
@@ -37835,9 +38779,11 @@
         <v>-221.8470675912374</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>161100</v>
+      </c>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
@@ -37872,9 +38818,11 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1061" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>161200</v>
+      </c>
       <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
@@ -37909,9 +38857,11 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
@@ -37946,9 +38896,11 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
@@ -37983,9 +38935,11 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
@@ -38205,11 +39159,9 @@
         <v>-231.0371675912374</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1070" t="n">
-        <v>161400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
@@ -38244,11 +39196,9 @@
         <v>-224.4855675912374</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1071" t="n">
-        <v>161400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
@@ -38283,11 +39233,9 @@
         <v>-224.4855675912374</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1072" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
@@ -38322,11 +39270,9 @@
         <v>-193.1756675912374</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1073" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
@@ -38361,11 +39307,9 @@
         <v>-193.1756675912374</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1074" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
@@ -38400,11 +39344,9 @@
         <v>-178.7273675912374</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1075" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
@@ -38439,11 +39381,9 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1076" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
@@ -38478,11 +39418,9 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1077" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
@@ -38517,11 +39455,9 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1078" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
@@ -38556,11 +39492,9 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1079" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
@@ -38595,11 +39529,9 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1080" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
@@ -38634,11 +39566,9 @@
         <v>-178.9943675912374</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1081" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
@@ -38673,11 +39603,9 @@
         <v>-195.3340675912374</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1082" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
@@ -38712,11 +39640,9 @@
         <v>-195.3340675912374</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1083" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
@@ -38751,11 +39677,9 @@
         <v>-195.3340675912374</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1084" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
@@ -38827,11 +39751,9 @@
         <v>-198.5701675912374</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1086" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
@@ -38866,11 +39788,9 @@
         <v>-198.5701675912374</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1087" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
@@ -38905,11 +39825,9 @@
         <v>-198.5701675912374</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1088" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
@@ -38944,11 +39862,9 @@
         <v>-198.5701675912374</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1089" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
@@ -38983,11 +39899,9 @@
         <v>-195.9235675912374</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1090" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
@@ -39022,11 +39936,9 @@
         <v>-196.5554675912374</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1091" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
@@ -39061,11 +39973,9 @@
         <v>-196.5554675912374</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1092" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
@@ -39100,11 +40010,9 @@
         <v>-169.6936675912374</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1093" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
@@ -39139,11 +40047,9 @@
         <v>-169.6936675912374</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1094" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
@@ -39178,11 +40084,9 @@
         <v>-171.8608675912374</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1095" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
@@ -39217,11 +40121,9 @@
         <v>-173.3151675912374</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1096" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
@@ -39293,11 +40195,9 @@
         <v>-177.4042675912374</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1098" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
@@ -39332,11 +40232,9 @@
         <v>-177.4042675912374</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1099" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
@@ -39371,11 +40269,9 @@
         <v>-177.4042675912374</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1100" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
@@ -39410,11 +40306,9 @@
         <v>-155.4985675912374</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1101" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
@@ -39449,11 +40343,9 @@
         <v>-147.0388993166548</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1102" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr">
         <is>
@@ -39488,11 +40380,9 @@
         <v>-176.1417993166548</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1103" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr">
         <is>
@@ -39527,11 +40417,9 @@
         <v>-188.3305993166549</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1104" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
@@ -39566,11 +40454,9 @@
         <v>-188.3305993166549</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1105" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
@@ -39605,11 +40491,9 @@
         <v>-186.9433993166548</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1106" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
@@ -39644,11 +40528,9 @@
         <v>-94.25629882221727</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1107" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
@@ -39683,11 +40565,9 @@
         <v>-129.0025988222173</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1108" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
@@ -39722,11 +40602,9 @@
         <v>-170.8496202817101</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1109" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
@@ -39761,11 +40639,9 @@
         <v>-125.8464202817102</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1110" t="n">
-        <v>161400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
@@ -39800,7 +40676,7 @@
         <v>-125.8464202817102</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1111" t="n">
         <v>161500</v>
@@ -39839,7 +40715,7 @@
         <v>-61.14253216289828</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1112" t="n">
         <v>161500</v>
@@ -39878,7 +40754,7 @@
         <v>53.35156783710173</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1113" t="n">
         <v>161600</v>
@@ -39917,11 +40793,9 @@
         <v>219.1624678371017</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1114" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
@@ -39956,11 +40830,9 @@
         <v>205.1388678371017</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1115" t="n">
-        <v>161900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
@@ -39995,11 +40867,9 @@
         <v>205.1388678371017</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1116" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
@@ -40034,11 +40904,9 @@
         <v>205.1388678371017</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1117" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
@@ -40073,11 +40941,9 @@
         <v>205.1388678371017</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1118" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
@@ -40112,11 +40978,9 @@
         <v>214.5516678371017</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1119" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
@@ -40151,11 +41015,9 @@
         <v>192.1801678371017</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1120" t="n">
-        <v>161800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
@@ -40190,11 +41052,9 @@
         <v>198.5191678371017</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1121" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
@@ -40229,11 +41089,9 @@
         <v>179.4067678371017</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1122" t="n">
-        <v>161900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
@@ -40342,11 +41200,9 @@
         <v>142.7056664782382</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1125" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr">
         <is>
@@ -40455,11 +41311,9 @@
         <v>31.40626647823824</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1128" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
@@ -40494,11 +41348,9 @@
         <v>31.48996647823824</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1129" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
@@ -40533,11 +41385,9 @@
         <v>24.66566647823824</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1130" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
@@ -40572,11 +41422,9 @@
         <v>26.62346647823824</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1131" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
@@ -40611,11 +41459,9 @@
         <v>25.84566647823824</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1132" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
@@ -40650,11 +41496,9 @@
         <v>25.84566647823824</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1133" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
@@ -40689,11 +41533,9 @@
         <v>26.27726647823824</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1134" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr">
         <is>
@@ -40728,11 +41570,9 @@
         <v>18.43766647823823</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1135" t="n">
-        <v>161800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
@@ -40804,11 +41644,9 @@
         <v>18.43766647823823</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1137" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr">
         <is>
@@ -40843,11 +41681,9 @@
         <v>18.43766647823823</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1138" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
@@ -40882,11 +41718,9 @@
         <v>18.43766647823823</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1139" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
@@ -40921,11 +41755,9 @@
         <v>18.43766647823823</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1140" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
@@ -40960,11 +41792,9 @@
         <v>78.43766647823824</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1141" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
@@ -40999,11 +41829,9 @@
         <v>78.43766647823824</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1142" t="n">
-        <v>161800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr">
         <is>
@@ -41075,11 +41903,9 @@
         <v>101.3742664782382</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1144" t="n">
-        <v>161900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
@@ -41151,11 +41977,9 @@
         <v>29.16466647823825</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1146" t="n">
-        <v>162000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
@@ -41190,11 +42014,9 @@
         <v>42.88136647823825</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1147" t="n">
-        <v>161800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr">
         <is>
@@ -41266,11 +42088,9 @@
         <v>32.79486647823825</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1149" t="n">
-        <v>161800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
@@ -41379,11 +42199,9 @@
         <v>-43.52623352176175</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1152" t="n">
-        <v>161800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
@@ -41418,11 +42236,9 @@
         <v>66.55596647823825</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1153" t="n">
-        <v>161800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
@@ -41531,11 +42347,9 @@
         <v>48.86096647823825</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1156" t="n">
-        <v>162000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
@@ -41570,11 +42384,9 @@
         <v>49.49696647823825</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1157" t="n">
-        <v>161900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
@@ -41646,11 +42458,9 @@
         <v>49.23396647823825</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1159" t="n">
-        <v>162000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
@@ -41685,11 +42495,9 @@
         <v>87.01766647823825</v>
       </c>
       <c r="H1160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1160" t="n">
-        <v>161800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
@@ -41724,11 +42532,9 @@
         <v>87.14066647823826</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1161" t="n">
-        <v>161900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
@@ -41763,11 +42569,9 @@
         <v>87.14066647823826</v>
       </c>
       <c r="H1162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1162" t="n">
-        <v>162100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
@@ -41802,11 +42606,9 @@
         <v>84.95706647823826</v>
       </c>
       <c r="H1163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1163" t="n">
-        <v>162100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr">
         <is>
@@ -41841,11 +42643,9 @@
         <v>68.83376647823826</v>
       </c>
       <c r="H1164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1164" t="n">
-        <v>162000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr">
         <is>
@@ -41954,11 +42754,9 @@
         <v>273.4216664782383</v>
       </c>
       <c r="H1167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1167" t="n">
-        <v>162000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
@@ -42030,11 +42828,9 @@
         <v>272.5716664782382</v>
       </c>
       <c r="H1169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1169" t="n">
-        <v>162000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
@@ -42069,11 +42865,9 @@
         <v>252.2582664782382</v>
       </c>
       <c r="H1170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1170" t="n">
-        <v>161900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
@@ -42108,11 +42902,9 @@
         <v>252.2582664782382</v>
       </c>
       <c r="H1171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1171" t="n">
-        <v>161800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
@@ -42147,11 +42939,9 @@
         <v>252.2582664782382</v>
       </c>
       <c r="H1172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1172" t="n">
-        <v>161800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
@@ -42334,11 +43124,9 @@
         <v>327.3882664782382</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1177" t="n">
-        <v>161900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
@@ -42447,11 +43235,9 @@
         <v>327.3882664782382</v>
       </c>
       <c r="H1180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1180" t="n">
-        <v>162000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
@@ -42486,11 +43272,9 @@
         <v>293.3461664782382</v>
       </c>
       <c r="H1181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1181" t="n">
-        <v>162000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
@@ -42525,11 +43309,9 @@
         <v>305.9494269964368</v>
       </c>
       <c r="H1182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1182" t="n">
-        <v>161900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
@@ -42542,6 +43324,6 @@
       <c r="M1182" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest ETH.xlsx
+++ b/BackTest/2020-01-12 BackTest ETH.xlsx
@@ -451,7 +451,7 @@
         <v>1178.131144801768</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1230.757144801768</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1256.889344801768</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1266.889344801768</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1306.755144801768</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1306.755144801768</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1823.012344801768</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1424.405744801768</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1606.634544801768</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1220.650747255756</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1137.213847255756</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>452.6050253244828</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>454.5098253244828</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>478.1018253244828</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>454.8080575528437</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>548.3600575528437</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>434.6359575528437</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>434.6359575528437</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>507.8078575528437</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>527.7507575528437</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>639.0752575528436</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>634.8317575528436</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1720.60175730983</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1717.15805730983</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1710.88995730983</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1710.88995730983</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1696.61865730983</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1617.83015730983</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1379.04895730983</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>1078.69525730983</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>1009.74305730983</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>1595.46436473759</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>1722.754500158093</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>1858.00526473759</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>1858.00526473759</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>1858.00526473759</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>1943.471710759621</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>1782.273057969922</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>1835.188457969922</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>1868.928857969922</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>1775.271057969922</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>1705.834857969922</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>1794.003757969922</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>1686.784057969922</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>1607.943457969922</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>1690.481157969922</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>1796.184383140331</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>1698.636483140331</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>1528.515283140331</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>1376.821573168822</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>2654.832162275309</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>2825.116262275309</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>2825.116262275309</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>2635.395562275309</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>2666.733262275309</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>2666.733262275309</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>2666.733262275309</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>2755.156662275309</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>2755.156662275309</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>2533.933962275309</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>2451.320862275309</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>2395.409862275309</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>2370.923362275309</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>2404.913262275309</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>2372.445662275309</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>2394.091262275309</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>2260.654962275309</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>2280.316662275309</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>2280.316662275309</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>2280.316662275309</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>2307.628462275309</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>2242.956962275309</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>2242.956962275309</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>2261.132562275309</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>2261.132562275309</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>2134.301762275309</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>1915.537362275309</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -25069,11 +25069,17 @@
         <v>-848.6608041496968</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>161700</v>
+      </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25102,11 +25108,17 @@
         <v>-848.6608041496968</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>161100</v>
+      </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25135,11 +25147,17 @@
         <v>-726.1024041496968</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>161100</v>
+      </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25168,11 +25186,17 @@
         <v>-728.2812041496968</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>161200</v>
+      </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25209,7 +25233,7 @@
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L752" t="n">
@@ -25240,9 +25264,11 @@
         <v>-729.3752041496969</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>161200</v>
+      </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -25862,9 +25888,11 @@
         <v>-638.4281136351277</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>161400</v>
+      </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -25899,9 +25927,11 @@
         <v>-633.1424136351277</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>161500</v>
+      </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
@@ -25936,9 +25966,11 @@
         <v>-635.4963136351276</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>161600</v>
+      </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
@@ -25973,9 +26005,11 @@
         <v>-636.4463136351277</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>161500</v>
+      </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -26010,9 +26044,11 @@
         <v>-636.4463136351277</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>161400</v>
+      </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
@@ -26047,9 +26083,11 @@
         <v>-634.4091136351277</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>161400</v>
+      </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -26084,9 +26122,11 @@
         <v>-632.1778136351277</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>161500</v>
+      </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
@@ -26121,9 +26161,11 @@
         <v>-632.2332136351276</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>161700</v>
+      </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -26158,9 +26200,11 @@
         <v>-641.5185136351276</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>161600</v>
+      </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -26195,9 +26239,11 @@
         <v>-641.5185136351276</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>161500</v>
+      </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
@@ -26232,9 +26278,11 @@
         <v>-641.5185136351276</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>161500</v>
+      </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
@@ -26269,9 +26317,11 @@
         <v>-641.5185136351276</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>161500</v>
+      </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
@@ -26306,9 +26356,11 @@
         <v>-644.8566136351277</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>161500</v>
+      </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
@@ -26343,9 +26395,11 @@
         <v>-644.8566136351277</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>161400</v>
+      </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -26380,9 +26434,11 @@
         <v>-675.6685136351277</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>161400</v>
+      </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -26417,9 +26473,11 @@
         <v>-675.6685136351277</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>161300</v>
+      </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -26493,9 +26551,11 @@
         <v>-675.9397136351278</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>161600</v>
+      </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -26569,9 +26629,11 @@
         <v>-659.4641136351278</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>161600</v>
+      </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -26606,9 +26668,11 @@
         <v>-455.9575136351278</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>161800</v>
+      </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -26643,9 +26707,11 @@
         <v>-455.9575136351278</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>161900</v>
+      </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -26680,9 +26746,11 @@
         <v>-455.6917136351278</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>161900</v>
+      </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -26717,9 +26785,11 @@
         <v>-464.6297136351278</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>162000</v>
+      </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
@@ -26754,9 +26824,11 @@
         <v>-494.5356136351277</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>161700</v>
+      </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -26791,9 +26863,11 @@
         <v>-494.7264136351278</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>161600</v>
+      </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -26828,9 +26902,11 @@
         <v>-532.1747136351278</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>161400</v>
+      </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
@@ -26865,9 +26941,11 @@
         <v>-532.1747136351278</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>161300</v>
+      </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
@@ -26902,9 +26980,11 @@
         <v>-532.1747136351278</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>161300</v>
+      </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -26939,9 +27019,11 @@
         <v>-528.6127136351278</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>161300</v>
+      </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -26976,9 +27058,11 @@
         <v>-528.6127136351278</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>161400</v>
+      </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -27013,9 +27097,11 @@
         <v>-514.0963136351278</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>161400</v>
+      </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -27050,9 +27136,11 @@
         <v>-666.7782136351278</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>161900</v>
+      </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -27087,9 +27175,11 @@
         <v>-562.3764136351278</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>161700</v>
+      </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -27124,9 +27214,11 @@
         <v>-659.0733136351279</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>161800</v>
+      </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -27161,9 +27253,11 @@
         <v>-651.5497136351279</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>161600</v>
+      </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -27198,9 +27292,11 @@
         <v>-651.5497136351279</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>162000</v>
+      </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -27235,9 +27331,11 @@
         <v>-579.7180136351279</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>162000</v>
+      </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -27272,9 +27370,11 @@
         <v>-587.0144136351279</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>162100</v>
+      </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -27309,9 +27409,11 @@
         <v>-584.3628136351278</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>161900</v>
+      </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -27346,9 +27448,11 @@
         <v>-577.8538136351278</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>162100</v>
+      </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -27383,9 +27487,11 @@
         <v>-577.8538136351278</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>162200</v>
+      </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -27420,9 +27526,11 @@
         <v>-577.8538136351278</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>162200</v>
+      </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -27457,9 +27565,11 @@
         <v>-578.1266136351278</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>162200</v>
+      </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -27494,9 +27604,11 @@
         <v>-565.9976136351278</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>162000</v>
+      </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -27531,9 +27643,11 @@
         <v>-562.0632136351278</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>162200</v>
+      </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -27568,9 +27682,11 @@
         <v>-562.0632136351278</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>162400</v>
+      </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -27605,9 +27721,11 @@
         <v>-569.9253136351278</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>162400</v>
+      </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -27642,9 +27760,11 @@
         <v>-569.9253136351278</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>162300</v>
+      </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -27679,9 +27799,11 @@
         <v>-567.3958136351279</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>162300</v>
+      </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -27716,9 +27838,11 @@
         <v>-566.4085136351279</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>162400</v>
+      </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -27753,9 +27877,11 @@
         <v>-568.7305136351279</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>162500</v>
+      </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -27790,9 +27916,11 @@
         <v>-568.7305136351279</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>162300</v>
+      </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -27827,9 +27955,11 @@
         <v>-568.7305136351279</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>162300</v>
+      </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -27864,9 +27994,11 @@
         <v>-491.3992136351279</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>162300</v>
+      </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -27901,9 +28033,11 @@
         <v>-491.3992136351279</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>162400</v>
+      </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -27938,9 +28072,11 @@
         <v>-537.1601136351279</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>162400</v>
+      </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -27975,9 +28111,11 @@
         <v>-544.9069628962117</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>162300</v>
+      </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -28012,9 +28150,11 @@
         <v>-556.6582628962117</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>162200</v>
+      </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -28049,9 +28189,11 @@
         <v>-556.6582628962117</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>162100</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -28086,9 +28228,11 @@
         <v>-739.9102628962116</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>162100</v>
+      </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -28123,9 +28267,11 @@
         <v>-731.6912628962116</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>161700</v>
+      </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -28160,9 +28306,11 @@
         <v>-738.3392628962116</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>162000</v>
+      </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -28197,9 +28345,11 @@
         <v>-738.3392628962116</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>161900</v>
+      </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28234,9 +28384,11 @@
         <v>-731.7892628962117</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>161900</v>
+      </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -28271,9 +28423,11 @@
         <v>-732.3540628962116</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>162000</v>
+      </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -28308,9 +28462,11 @@
         <v>-717.2329628962117</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>161900</v>
+      </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -28345,9 +28501,11 @@
         <v>-717.2329628962117</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>162000</v>
+      </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -28382,9 +28540,11 @@
         <v>-727.0454628962117</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>162000</v>
+      </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -28419,9 +28579,11 @@
         <v>-719.1377520454103</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>161900</v>
+      </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -28456,9 +28618,11 @@
         <v>-734.6109520454103</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>162200</v>
+      </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -28493,9 +28657,11 @@
         <v>-715.6386520454103</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>161900</v>
+      </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -28530,9 +28696,11 @@
         <v>-715.6386520454103</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>162000</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -28567,9 +28735,11 @@
         <v>-713.8952520454103</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>162000</v>
+      </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -28604,9 +28774,11 @@
         <v>-714.8832520454104</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>162100</v>
+      </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -28641,9 +28813,11 @@
         <v>-703.2884520454104</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>161900</v>
+      </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -28678,9 +28852,11 @@
         <v>-703.2884520454104</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>162000</v>
+      </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -28715,16 +28891,20 @@
         <v>-787.6819520454104</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>162000</v>
+      </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L846" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L846" t="n">
+        <v>1</v>
+      </c>
       <c r="M846" t="inlineStr"/>
     </row>
     <row r="847">
@@ -28750,11 +28930,17 @@
         <v>-822.4309520454104</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>161900</v>
+      </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28783,11 +28969,17 @@
         <v>-822.4309520454104</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>161800</v>
+      </c>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28816,11 +29008,17 @@
         <v>-839.6637520454104</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>161800</v>
+      </c>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28849,11 +29047,17 @@
         <v>-949.2989520454105</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>161500</v>
+      </c>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28882,11 +29086,17 @@
         <v>-936.5743520454105</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>161400</v>
+      </c>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28915,11 +29125,17 @@
         <v>-939.1319520454105</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>161700</v>
+      </c>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28948,11 +29164,17 @@
         <v>-932.2629291635304</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>161400</v>
+      </c>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28981,11 +29203,17 @@
         <v>-982.2629291635304</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>161700</v>
+      </c>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29014,11 +29242,17 @@
         <v>-980.9825291635304</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>161400</v>
+      </c>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29047,11 +29281,17 @@
         <v>-992.6779291635304</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>161600</v>
+      </c>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29088,7 +29328,7 @@
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L857" t="n">
@@ -29275,11 +29515,9 @@
         <v>-896.2442291635305</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>161900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -29314,11 +29552,9 @@
         <v>-894.8867291635305</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
-      </c>
-      <c r="I863" t="n">
-        <v>161900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -29353,11 +29589,9 @@
         <v>-900.3630291635305</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
-      </c>
-      <c r="I864" t="n">
-        <v>162200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -29392,11 +29626,9 @@
         <v>-823.3839291635305</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>162100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -29431,11 +29663,9 @@
         <v>-823.3839291635305</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>162200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -29544,11 +29774,9 @@
         <v>-845.1884291635306</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>162000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29583,11 +29811,9 @@
         <v>-802.2911291635306</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>162000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -29622,11 +29848,9 @@
         <v>-700.617177161066</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>162100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -29809,9 +30033,11 @@
         <v>-743.4852771610661</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>162000</v>
+      </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -29883,9 +30109,11 @@
         <v>-751.568677161066</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>162000</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -29920,9 +30148,11 @@
         <v>-751.568677161066</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>161900</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -29957,9 +30187,11 @@
         <v>-751.568677161066</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>161900</v>
+      </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -29994,9 +30226,11 @@
         <v>-751.568677161066</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>161900</v>
+      </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -30031,9 +30265,11 @@
         <v>-750.646177161066</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>161900</v>
+      </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -30185,9 +30421,11 @@
         <v>-387.425777161066</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>162200</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -30222,9 +30460,11 @@
         <v>-386.766177161066</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>162200</v>
+      </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -30592,16 +30832,18 @@
         <v>-131.903277161066</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L897" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L897" t="n">
+        <v>1</v>
+      </c>
       <c r="M897" t="inlineStr"/>
     </row>
     <row r="898">
@@ -30627,11 +30869,15 @@
         <v>-131.903277161066</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30664,7 +30910,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30697,7 +30947,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30730,7 +30984,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30763,7 +31021,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30796,7 +31058,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30829,7 +31095,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30862,7 +31132,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30895,7 +31169,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30928,7 +31206,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30961,7 +31243,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30994,7 +31280,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31027,7 +31317,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31060,7 +31354,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31093,7 +31391,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31126,7 +31428,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31159,7 +31465,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31192,7 +31502,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31225,7 +31539,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31254,11 +31572,15 @@
         <v>-95.36587716106598</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31291,7 +31613,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31320,11 +31646,15 @@
         <v>-20.88577716106598</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31353,11 +31683,15 @@
         <v>-20.88577716106598</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31390,7 +31724,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31423,7 +31761,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31456,7 +31798,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31489,7 +31835,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31522,7 +31872,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31555,7 +31909,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31588,7 +31946,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31621,7 +31983,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31654,7 +32020,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31687,7 +32057,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31720,7 +32094,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31753,7 +32131,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31786,7 +32168,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31819,7 +32205,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31852,7 +32242,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31885,7 +32279,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31918,7 +32316,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31951,7 +32353,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31984,7 +32390,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32017,7 +32427,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32050,7 +32464,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32083,7 +32501,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32116,7 +32538,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32149,7 +32575,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32182,7 +32612,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32215,7 +32649,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32248,7 +32686,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32281,7 +32723,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32314,7 +32760,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32347,7 +32797,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32380,7 +32834,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32413,7 +32871,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32446,7 +32908,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32479,7 +32945,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32512,7 +32982,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32545,7 +33019,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32578,7 +33056,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32611,7 +33093,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32644,7 +33130,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32677,7 +33167,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32710,7 +33204,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32743,7 +33241,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32776,7 +33278,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32809,7 +33315,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32842,7 +33352,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32875,7 +33389,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32908,7 +33426,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32941,7 +33463,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32974,7 +33500,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33007,7 +33537,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33040,7 +33574,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33073,7 +33611,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33106,7 +33648,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33139,7 +33685,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33172,7 +33722,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33205,7 +33759,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33238,7 +33796,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33271,7 +33833,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33304,7 +33870,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33337,7 +33907,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33370,7 +33944,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33403,7 +33981,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33436,7 +34018,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33469,7 +34055,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33502,7 +34092,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33535,7 +34129,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33568,7 +34166,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33601,7 +34203,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33634,7 +34240,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33667,7 +34277,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33700,7 +34314,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33733,7 +34351,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33766,7 +34388,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33799,7 +34425,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33832,7 +34462,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33865,7 +34499,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33898,7 +34536,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33931,7 +34573,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33964,7 +34610,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33997,7 +34647,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34030,7 +34684,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34063,7 +34721,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34096,7 +34758,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34129,7 +34795,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34162,7 +34832,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34195,7 +34869,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34228,7 +34906,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34261,7 +34943,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34294,7 +34980,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34327,7 +35017,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34360,7 +35054,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34393,7 +35091,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34426,7 +35128,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34459,7 +35165,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34488,15 +35198,15 @@
         <v>-506.2068558004116</v>
       </c>
       <c r="H1015" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1015" t="n">
-        <v>161600</v>
-      </c>
-      <c r="J1015" t="n">
-        <v>161600</v>
-      </c>
-      <c r="K1015" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
+      <c r="J1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34528,12 +35238,10 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="n">
-        <v>161600</v>
-      </c>
+      <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1016" t="n">
@@ -34567,12 +35275,10 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="n">
-        <v>161600</v>
-      </c>
+      <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1017" t="n">
@@ -34607,7 +35313,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34640,7 +35350,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34673,7 +35387,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34706,7 +35424,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34739,7 +35461,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34768,15 +35494,13 @@
         <v>-798.003229497682</v>
       </c>
       <c r="H1023" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1023" t="n">
-        <v>161100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1023" t="n">
@@ -34807,11 +35531,9 @@
         <v>-725.0990031949525</v>
       </c>
       <c r="H1024" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1024" t="n">
-        <v>161100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
@@ -34846,11 +35568,9 @@
         <v>-725.0990031949525</v>
       </c>
       <c r="H1025" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1025" t="n">
-        <v>161300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
@@ -34885,11 +35605,9 @@
         <v>-725.0990031949525</v>
       </c>
       <c r="H1026" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1026" t="n">
-        <v>161300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
@@ -34924,11 +35642,9 @@
         <v>-716.8763031949525</v>
       </c>
       <c r="H1027" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1027" t="n">
-        <v>161300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
@@ -34963,11 +35679,9 @@
         <v>-701.2824031949525</v>
       </c>
       <c r="H1028" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1028" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
@@ -35002,11 +35716,9 @@
         <v>-710.5558031949525</v>
       </c>
       <c r="H1029" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1029" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
@@ -35041,11 +35753,9 @@
         <v>-710.5558031949525</v>
       </c>
       <c r="H1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1030" t="n">
-        <v>161400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
@@ -35080,11 +35790,9 @@
         <v>-778.9989031949525</v>
       </c>
       <c r="H1031" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1031" t="n">
-        <v>161400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
@@ -35119,11 +35827,9 @@
         <v>-778.9989031949525</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1032" t="n">
-        <v>161300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
@@ -35158,11 +35864,9 @@
         <v>-778.9989031949525</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1033" t="n">
-        <v>161300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
@@ -35197,11 +35901,9 @@
         <v>-643.7457031949525</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1034" t="n">
-        <v>161300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
@@ -35236,11 +35938,9 @@
         <v>-643.8766031949525</v>
       </c>
       <c r="H1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1035" t="n">
-        <v>161400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
@@ -35275,11 +35975,9 @@
         <v>-631.6372031949525</v>
       </c>
       <c r="H1036" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1036" t="n">
-        <v>161300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
@@ -35353,11 +36051,9 @@
         <v>-593.3187031949525</v>
       </c>
       <c r="H1038" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1038" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
@@ -35392,11 +36088,9 @@
         <v>-589.3031031949525</v>
       </c>
       <c r="H1039" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1039" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
@@ -35431,11 +36125,9 @@
         <v>-579.3031031949525</v>
       </c>
       <c r="H1040" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1040" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
@@ -35470,11 +36162,9 @@
         <v>-589.7982031949525</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1041" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
@@ -35546,11 +36236,9 @@
         <v>-601.3615031949525</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1043" t="n">
-        <v>161300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
@@ -36168,9 +36856,11 @@
         <v>-243.6458675912374</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
@@ -36205,9 +36895,11 @@
         <v>-221.8470675912374</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>161100</v>
+      </c>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
@@ -36242,9 +36934,11 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1061" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>161200</v>
+      </c>
       <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
@@ -36279,9 +36973,11 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
@@ -36316,9 +37012,11 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
@@ -36353,9 +37051,11 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
@@ -36390,9 +37090,11 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
@@ -36427,9 +37129,11 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1066" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
@@ -36464,9 +37168,11 @@
         <v>-196.7996675912374</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>161300</v>
+      </c>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
@@ -36501,9 +37207,11 @@
         <v>-231.0371675912374</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1068" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>161500</v>
+      </c>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
@@ -36538,9 +37246,11 @@
         <v>-231.0371675912374</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>161400</v>
+      </c>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
@@ -36575,9 +37285,11 @@
         <v>-231.0371675912374</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1070" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>161400</v>
+      </c>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
@@ -36612,9 +37324,11 @@
         <v>-224.4855675912374</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>161400</v>
+      </c>
       <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
@@ -36649,9 +37363,11 @@
         <v>-224.4855675912374</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>161500</v>
+      </c>
       <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
@@ -36686,9 +37402,11 @@
         <v>-193.1756675912374</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>161500</v>
+      </c>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
@@ -36723,9 +37441,11 @@
         <v>-193.1756675912374</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
@@ -36760,9 +37480,11 @@
         <v>-178.7273675912374</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
@@ -36797,9 +37519,11 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>161700</v>
+      </c>
       <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
@@ -36834,9 +37558,11 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
@@ -36871,9 +37597,11 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
@@ -36908,9 +37636,11 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
@@ -36945,9 +37675,11 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
@@ -36982,9 +37714,11 @@
         <v>-178.9943675912374</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
@@ -37019,9 +37753,11 @@
         <v>-195.3340675912374</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>161700</v>
+      </c>
       <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
@@ -37056,9 +37792,11 @@
         <v>-195.3340675912374</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
@@ -37093,9 +37831,11 @@
         <v>-195.3340675912374</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
@@ -37130,9 +37870,11 @@
         <v>-198.5701675912374</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>161600</v>
+      </c>
       <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr">
         <is>
@@ -37167,9 +37909,11 @@
         <v>-198.5701675912374</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>161500</v>
+      </c>
       <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
@@ -37204,9 +37948,11 @@
         <v>-198.5701675912374</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>161500</v>
+      </c>
       <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
@@ -37241,9 +37987,11 @@
         <v>-198.5701675912374</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>161500</v>
+      </c>
       <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
@@ -37278,9 +38026,11 @@
         <v>-198.5701675912374</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>161500</v>
+      </c>
       <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
@@ -37315,9 +38065,11 @@
         <v>-195.9235675912374</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>161500</v>
+      </c>
       <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
